--- a/error/new/pp_and_da/pp_and_da_myval.xlsx
+++ b/error/new/pp_and_da/pp_and_da_myval.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
   <si>
     <t>Classe</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>Class\Opt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>pp + f + r</t>
+  </si>
+  <si>
+    <t>pp\class</t>
   </si>
 </sst>
 </file>
@@ -1351,45 +1360,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1462,7 +1432,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -2063,71 +2032,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.0194</cdr:x>
-      <cdr:y>0.74429</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.98547</cdr:x>
-      <cdr:y>0.77106</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="Retângulo 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C3081F-459F-439C-A04D-EFC6F4EF9DE6}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="216568" y="4872951"/>
-          <a:ext cx="10784529" cy="175266"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2391,10 +2295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:AF71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J35" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="L17" workbookViewId="0">
+      <selection activeCell="AO14" sqref="AO14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2404,7 +2308,7 @@
     <col min="18" max="18" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
@@ -2436,7 +2340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
       <c r="B2" s="2">
         <v>0</v>
@@ -2494,8 +2398,32 @@
         <v>128</v>
       </c>
       <c r="V2" s="8"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Y2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="8">
+        <v>5</v>
+      </c>
+      <c r="AF2" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
       <c r="B3" s="2">
         <v>1</v>
@@ -2561,8 +2489,33 @@
         <v>#DIV/0!</v>
       </c>
       <c r="V3" s="8"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Y3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z3">
+        <f t="array" ref="Z3:AF7">TRANSPOSE(N3:R9)</f>
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>0.97334443981674301</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>0.92669720949604328</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" s="2">
         <v>2</v>
@@ -2628,8 +2581,32 @@
         <v>#DIV/0!</v>
       </c>
       <c r="V4" s="8"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Y4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z4">
+        <v>0.93294460641399413</v>
+      </c>
+      <c r="AA4">
+        <v>0.3715118700541441</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>6.4556434818825489E-2</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="2">
         <v>3</v>
@@ -2695,8 +2672,32 @@
         <v>#DIV/0!</v>
       </c>
       <c r="V5" s="8"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Y5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>0.93044564764681381</v>
+      </c>
+      <c r="AC5">
+        <v>0.9433569346105789</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="2">
         <v>4</v>
@@ -2762,8 +2763,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="V6" s="8"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>0.93544356518117455</v>
+      </c>
+      <c r="AC6">
+        <v>0.87880049979175345</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="2">
         <v>5</v>
@@ -2829,8 +2857,32 @@
         <v>#DIV/0!</v>
       </c>
       <c r="V7" s="8"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Y7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>0.8567263640149938</v>
+      </c>
+      <c r="AC7">
+        <v>0.89004581424406493</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="2">
         <v>6</v>
@@ -2897,7 +2949,7 @@
       </c>
       <c r="V8" s="8"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="M9" s="8">
         <v>6</v>
       </c>
@@ -2935,7 +2987,7 @@
       </c>
       <c r="V9" s="8"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>9</v>
       </c>
@@ -2977,7 +3029,7 @@
       <c r="U10" s="11"/>
       <c r="V10" s="8"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="2">
         <v>0</v>
@@ -3044,7 +3096,7 @@
       </c>
       <c r="V11" s="8"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="2">
         <v>1</v>
@@ -3111,7 +3163,7 @@
       </c>
       <c r="V12" s="8"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="2">
         <v>2</v>
@@ -3178,7 +3230,7 @@
       </c>
       <c r="V13" s="8"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="2">
         <v>3</v>
@@ -3245,7 +3297,7 @@
       </c>
       <c r="V14" s="8"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="2">
         <v>4</v>
@@ -3286,7 +3338,7 @@
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="2">
         <v>5</v>

--- a/error/new/pp_and_da/pp_and_da_myval.xlsx
+++ b/error/new/pp_and_da/pp_and_da_myval.xlsx
@@ -1360,6 +1360,45 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1432,6 +1471,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -2032,6 +2072,71 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01775</cdr:x>
+      <cdr:y>0.74197</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9884</cdr:x>
+      <cdr:y>0.77107</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Retângulo 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E80E5A-BDB8-4F55-8662-080AAC15DCC5}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="198120" y="4857750"/>
+          <a:ext cx="10835640" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2298,7 +2403,7 @@
   <dimension ref="A1:AF71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L17" workbookViewId="0">
-      <selection activeCell="AO14" sqref="AO14"/>
+      <selection activeCell="AF35" sqref="AF35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/error/new/pp_and_da/pp_and_da_myval.xlsx
+++ b/error/new/pp_and_da/pp_and_da_myval.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -1153,7 +1153,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1400"/>
+                  <a:rPr lang="en-GB" sz="1400" b="1"/>
                   <a:t>Classes</a:t>
                 </a:r>
               </a:p>
@@ -1288,8 +1288,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1400"/>
-                  <a:t>Precision</a:t>
+                  <a:rPr lang="en-GB" sz="1400" b="1"/>
+                  <a:t>Accuracy (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>

--- a/error/new/pp_and_da/pp_and_da_myval.xlsx
+++ b/error/new/pp_and_da/pp_and_da_myval.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
   <si>
     <t>Classe</t>
   </si>
@@ -1475,7 +1475,904 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600" b="1"/>
+              <a:t>Impact of data</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600" b="1" baseline="0"/>
+              <a:t> preprocessing and augmentation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600" b="1"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>with pp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tamanho!$Z$8:$AF$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tamanho!$Z$9:$AF$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.334443981674298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.669720949604326</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A6E2-4CF9-86C8-8C07B5D5B6CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>wo pp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tamanho!$Z$8:$AF$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tamanho!$Z$10:$AF$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>93.294460641399411</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.151187005414407</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4556434818825492</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A6E2-4CF9-86C8-8C07B5D5B6CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>pp + flips</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tamanho!$Z$8:$AF$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tamanho!$Z$11:$AF$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.044564764681382</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.335693461057886</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A6E2-4CF9-86C8-8C07B5D5B6CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>pp + rot</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tamanho!$Z$8:$AF$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tamanho!$Z$12:$AF$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.544356518117453</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.88004997917534</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A6E2-4CF9-86C8-8C07B5D5B6CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>pp + flips + rot</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tamanho!$Z$8:$AF$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tamanho!$Z$13:$AF$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.672636401499375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.004581424406496</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A6E2-4CF9-86C8-8C07B5D5B6CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="365098160"/>
+        <c:axId val="365102752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="365098160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400" b="1"/>
+                  <a:t>Class</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365102752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="365102752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400"/>
+                  <a:t>Accuracy (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365098160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2031,20 +2928,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>12954</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>66294</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2064,6 +3477,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{138AB8A0-1396-4CA5-B882-0B08E34F4125}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2402,8 +3851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L17" workbookViewId="0">
-      <selection activeCell="AF35" sqref="AF35"/>
+    <sheetView tabSelected="1" topLeftCell="L19" workbookViewId="0">
+      <selection activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3053,6 +4502,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="V8" s="8"/>
+      <c r="Y8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="8">
+        <v>5</v>
+      </c>
+      <c r="AF8" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="M9" s="8">
@@ -3091,6 +4564,37 @@
         <v>#DIV/0!</v>
       </c>
       <c r="V9" s="8"/>
+      <c r="Y9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z9">
+        <f>Z3*100</f>
+        <v>100</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" ref="AA9:AF9" si="8">AA3*100</f>
+        <v>97.334443981674298</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="8"/>
+        <v>92.669720949604326</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
@@ -3133,6 +4637,37 @@
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
       <c r="V10" s="8"/>
+      <c r="Y10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" ref="Z10:AF10" si="9">Z4*100</f>
+        <v>93.294460641399411</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="9"/>
+        <v>37.151187005414407</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="9"/>
+        <v>6.4556434818825492</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
@@ -3176,15 +4711,15 @@
         <v>0.33843041589813766</v>
       </c>
       <c r="P11" s="10">
-        <f t="shared" ref="P11:R11" si="8">AVERAGE(P3:P9)</f>
+        <f t="shared" ref="P11:R11" si="10">AVERAGE(P3:P9)</f>
         <v>0.98197179746534169</v>
       </c>
       <c r="Q11" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.97346343785327538</v>
       </c>
       <c r="R11" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.96382459689415134</v>
       </c>
       <c r="S11" s="10" t="e">
@@ -3200,6 +4735,37 @@
         <v>#DIV/0!</v>
       </c>
       <c r="V11" s="8"/>
+      <c r="Y11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" ref="Z11:AF11" si="11">Z5*100</f>
+        <v>100</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="11"/>
+        <v>93.044564764681382</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="11"/>
+        <v>94.335693461057886</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
@@ -3243,23 +4809,23 @@
         <v>6.4556434818825489E-2</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" ref="P12:T12" si="9">MEDIAN(P3:P9)</f>
+        <f t="shared" ref="P12:T12" si="12">MEDIAN(P3:P9)</f>
         <v>1</v>
       </c>
       <c r="Q12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="S12" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T12" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U12" s="10" t="e">
@@ -3267,6 +4833,37 @@
         <v>#DIV/0!</v>
       </c>
       <c r="V12" s="8"/>
+      <c r="Y12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" ref="Z12:AF12" si="13">Z6*100</f>
+        <v>100</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="13"/>
+        <v>93.544356518117453</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="13"/>
+        <v>87.88004997917534</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
@@ -3310,30 +4907,61 @@
         <v>1</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" ref="P13:T13" si="10">LARGE(P3:P9,1)</f>
+        <f t="shared" ref="P13:T13" si="14">LARGE(P3:P9,1)</f>
         <v>1</v>
       </c>
       <c r="Q13" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S13" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T13" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U13" s="10" t="e">
-        <f t="shared" ref="U13" si="11">LARGE(U3:U9,1)</f>
+        <f t="shared" ref="U13" si="15">LARGE(U3:U9,1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V13" s="8"/>
+      <c r="Y13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" ref="Z13:AF13" si="16">Z7*100</f>
+        <v>100</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="16"/>
+        <v>85.672636401499375</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="16"/>
+        <v>89.004581424406496</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
@@ -3377,27 +5005,27 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <f t="shared" ref="P14:T14" si="12">SMALL(P3:P9,1)</f>
+        <f t="shared" ref="P14:T14" si="17">SMALL(P3:P9,1)</f>
         <v>0.93044564764681381</v>
       </c>
       <c r="Q14" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.87880049979175345</v>
       </c>
       <c r="R14" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.8567263640149938</v>
       </c>
       <c r="S14" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T14" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U14" s="10" t="e">
-        <f t="shared" ref="U14" si="13">SMALL(U3:U9,1)</f>
+        <f t="shared" ref="U14" si="18">SMALL(U3:U9,1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V14" s="8"/>
